--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col1a1-Cd36.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H2">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I2">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J2">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>396.995296030644</v>
+        <v>404.808258</v>
       </c>
       <c r="N2">
-        <v>396.995296030644</v>
+        <v>809.616516</v>
       </c>
       <c r="O2">
-        <v>0.4033065793617904</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P2">
-        <v>0.4033065793617904</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q2">
-        <v>10854.07149528346</v>
+        <v>11142.33799086007</v>
       </c>
       <c r="R2">
-        <v>10854.07149528346</v>
+        <v>44569.35196344027</v>
       </c>
       <c r="S2">
-        <v>0.01268918656621759</v>
+        <v>0.01109653877529125</v>
       </c>
       <c r="T2">
-        <v>0.01268918656621759</v>
+        <v>0.005884214608460508</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,55 +596,55 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H3">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I3">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J3">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>157.048618524835</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N3">
-        <v>157.048618524835</v>
+        <v>0.236996</v>
       </c>
       <c r="O3">
-        <v>0.1595453189597914</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P3">
-        <v>0.1595453189597914</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q3">
-        <v>4293.796301234962</v>
+        <v>2.174436483030667</v>
       </c>
       <c r="R3">
-        <v>4293.796301234962</v>
+        <v>13.046618898184</v>
       </c>
       <c r="S3">
-        <v>0.005019755247363288</v>
+        <v>2.165498728197821E-06</v>
       </c>
       <c r="T3">
-        <v>0.005019755247363288</v>
+        <v>1.722464028076604E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H4">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I4">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J4">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>72.88905713852451</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N4">
-        <v>72.88905713852451</v>
+        <v>609.625816</v>
       </c>
       <c r="O4">
-        <v>0.07404782021693096</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P4">
-        <v>0.07404782021693096</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q4">
-        <v>1992.827233258397</v>
+        <v>5593.312188002077</v>
       </c>
       <c r="R4">
-        <v>1992.827233258397</v>
+        <v>33559.87312801246</v>
       </c>
       <c r="S4">
-        <v>0.002329757692129023</v>
+        <v>0.005570321563336761</v>
       </c>
       <c r="T4">
-        <v>0.002329757692129023</v>
+        <v>0.004430701525117921</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H5">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I5">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J5">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>327.200973561916</v>
+        <v>88.434049</v>
       </c>
       <c r="N5">
-        <v>327.200973561916</v>
+        <v>265.302147</v>
       </c>
       <c r="O5">
-        <v>0.3324026927536134</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P5">
-        <v>0.3324026927536134</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q5">
-        <v>8945.856023677554</v>
+        <v>2434.145164741873</v>
       </c>
       <c r="R5">
-        <v>8945.856023677554</v>
+        <v>14604.87098845124</v>
       </c>
       <c r="S5">
-        <v>0.01045834608038957</v>
+        <v>0.00242413990918265</v>
       </c>
       <c r="T5">
-        <v>0.01045834608038957</v>
+        <v>0.001928190369369067</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>27.3405544191779</v>
+        <v>27.524977</v>
       </c>
       <c r="H6">
-        <v>27.3405544191779</v>
+        <v>55.049954</v>
       </c>
       <c r="I6">
-        <v>0.03146288014020872</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J6">
-        <v>0.03146288014020872</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.2172068102489</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N6">
-        <v>30.2172068102489</v>
+        <v>1018.778411</v>
       </c>
       <c r="O6">
-        <v>0.03069758870787372</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P6">
-        <v>0.03069758870787372</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q6">
-        <v>826.155187191163</v>
+        <v>9347.284110290515</v>
       </c>
       <c r="R6">
-        <v>826.155187191163</v>
+        <v>56083.70466174309</v>
       </c>
       <c r="S6">
-        <v>0.0009658345541092556</v>
+        <v>0.009308863243834904</v>
       </c>
       <c r="T6">
-        <v>0.0009658345541092556</v>
+        <v>0.007404383050889223</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>762.489990839008</v>
+        <v>27.524977</v>
       </c>
       <c r="H7">
-        <v>762.489990839008</v>
+        <v>55.049954</v>
       </c>
       <c r="I7">
-        <v>0.8774559148313684</v>
+        <v>0.02927501708753065</v>
       </c>
       <c r="J7">
-        <v>0.8774559148313684</v>
+        <v>0.02011213558514335</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>396.995296030644</v>
+        <v>31.847119</v>
       </c>
       <c r="N7">
-        <v>396.995296030644</v>
+        <v>63.694238</v>
       </c>
       <c r="O7">
-        <v>0.4033065793617904</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P7">
-        <v>0.4033065793617904</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q7">
-        <v>302704.939633535</v>
+        <v>876.591217991263</v>
       </c>
       <c r="R7">
-        <v>302704.939633535</v>
+        <v>3506.364871965052</v>
       </c>
       <c r="S7">
-        <v>0.3538837435514097</v>
+        <v>0.0008729880971568887</v>
       </c>
       <c r="T7">
-        <v>0.3538837435514097</v>
+        <v>0.0004629235672785613</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H8">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I8">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J8">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>157.048618524835</v>
+        <v>404.808258</v>
       </c>
       <c r="N8">
-        <v>157.048618524835</v>
+        <v>809.616516</v>
       </c>
       <c r="O8">
-        <v>0.1595453189597914</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P8">
-        <v>0.1595453189597914</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q8">
-        <v>119747.9997002803</v>
+        <v>336054.7477260819</v>
       </c>
       <c r="R8">
-        <v>119747.9997002803</v>
+        <v>2016328.486356491</v>
       </c>
       <c r="S8">
-        <v>0.1399939838049263</v>
+        <v>0.3346734358464158</v>
       </c>
       <c r="T8">
-        <v>0.1399939838049263</v>
+        <v>0.2662033216145088</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H9">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I9">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J9">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>72.88905713852451</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N9">
-        <v>72.88905713852451</v>
+        <v>0.236996</v>
       </c>
       <c r="O9">
-        <v>0.07404782021693096</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P9">
-        <v>0.07404782021693096</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q9">
-        <v>55577.17650981748</v>
+        <v>65.58136221955111</v>
       </c>
       <c r="R9">
-        <v>55577.17650981748</v>
+        <v>590.23225997596</v>
       </c>
       <c r="S9">
-        <v>0.06497369782971585</v>
+        <v>6.531179806272395E-05</v>
       </c>
       <c r="T9">
-        <v>0.06497369782971585</v>
+        <v>7.792469788172174E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H10">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I10">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J10">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>327.200973561916</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N10">
-        <v>327.200973561916</v>
+        <v>609.625816</v>
       </c>
       <c r="O10">
-        <v>0.3324026927536134</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P10">
-        <v>0.3324026927536134</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q10">
-        <v>249487.4673337398</v>
+        <v>168695.2161955705</v>
       </c>
       <c r="R10">
-        <v>249487.4673337398</v>
+        <v>1518256.945760134</v>
       </c>
       <c r="S10">
-        <v>0.2916687088625322</v>
+        <v>0.1680018151716287</v>
       </c>
       <c r="T10">
-        <v>0.2916687088625322</v>
+        <v>0.2004460308726649</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>762.489990839008</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H11">
-        <v>762.489990839008</v>
+        <v>2490.47351</v>
       </c>
       <c r="I11">
-        <v>0.8774559148313684</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J11">
-        <v>0.8774559148313684</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.2172068102489</v>
+        <v>88.434049</v>
       </c>
       <c r="N11">
-        <v>30.2172068102489</v>
+        <v>265.302147</v>
       </c>
       <c r="O11">
-        <v>0.03069758870787372</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P11">
-        <v>0.03069758870787372</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q11">
-        <v>23040.31774392709</v>
+        <v>73414.218805514</v>
       </c>
       <c r="R11">
-        <v>23040.31774392709</v>
+        <v>660727.9692496259</v>
       </c>
       <c r="S11">
-        <v>0.02693578078278442</v>
+        <v>0.07311245865107893</v>
       </c>
       <c r="T11">
-        <v>0.02693578078278442</v>
+        <v>0.08723180835266049</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H12">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I12">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J12">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>396.995296030644</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N12">
-        <v>396.995296030644</v>
+        <v>1018.778411</v>
       </c>
       <c r="O12">
-        <v>0.4033065793617904</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P12">
-        <v>0.4033065793617904</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q12">
-        <v>197.2747894374603</v>
+        <v>281915.627239488</v>
       </c>
       <c r="R12">
-        <v>197.2747894374603</v>
+        <v>2537240.645155392</v>
       </c>
       <c r="S12">
-        <v>0.0002306283507595277</v>
+        <v>0.2807568475834815</v>
       </c>
       <c r="T12">
-        <v>0.0002306283507595277</v>
+        <v>0.3349761172576564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.496919715195398</v>
+        <v>830.1578366666666</v>
       </c>
       <c r="H13">
-        <v>0.496919715195398</v>
+        <v>2490.47351</v>
       </c>
       <c r="I13">
-        <v>0.0005718437599616744</v>
+        <v>0.8829393337463696</v>
       </c>
       <c r="J13">
-        <v>0.0005718437599616744</v>
+        <v>0.9098779792682091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>157.048618524835</v>
+        <v>31.847119</v>
       </c>
       <c r="N13">
-        <v>157.048618524835</v>
+        <v>63.694238</v>
       </c>
       <c r="O13">
-        <v>0.1595453189597914</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P13">
-        <v>0.1595453189597914</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q13">
-        <v>78.04055478919172</v>
+        <v>26438.13541310589</v>
       </c>
       <c r="R13">
-        <v>78.04055478919172</v>
+        <v>158628.8124786354</v>
       </c>
       <c r="S13">
-        <v>9.123499507825175E-05</v>
+        <v>0.02632946469570211</v>
       </c>
       <c r="T13">
-        <v>9.123499507825175E-05</v>
+        <v>0.02094277647283701</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H14">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I14">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J14">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>72.88905713852451</v>
+        <v>404.808258</v>
       </c>
       <c r="N14">
-        <v>72.88905713852451</v>
+        <v>809.616516</v>
       </c>
       <c r="O14">
-        <v>0.07404782021693096</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P14">
-        <v>0.07404782021693096</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q14">
-        <v>36.22000951413669</v>
+        <v>409.7975197798501</v>
       </c>
       <c r="R14">
-        <v>36.22000951413669</v>
+        <v>2458.7851186791</v>
       </c>
       <c r="S14">
-        <v>4.234378392981589E-05</v>
+        <v>0.0004081130972678641</v>
       </c>
       <c r="T14">
-        <v>4.234378392981589E-05</v>
+        <v>0.0003246181215797084</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H15">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I15">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J15">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>327.200973561916</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N15">
-        <v>327.200973561916</v>
+        <v>0.236996</v>
       </c>
       <c r="O15">
-        <v>0.3324026927536134</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P15">
-        <v>0.3324026927536134</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q15">
-        <v>162.5926145940442</v>
+        <v>0.07997232523333335</v>
       </c>
       <c r="R15">
-        <v>162.5926145940442</v>
+        <v>0.7197509271000001</v>
       </c>
       <c r="S15">
-        <v>0.0001900824056456115</v>
+        <v>7.964360878568073E-08</v>
       </c>
       <c r="T15">
-        <v>0.0001900824056456115</v>
+        <v>9.502424273902111E-08</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.496919715195398</v>
+        <v>1.012325</v>
       </c>
       <c r="H16">
-        <v>0.496919715195398</v>
+        <v>3.036975</v>
       </c>
       <c r="I16">
-        <v>0.0005718437599616744</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J16">
-        <v>0.0005718437599616744</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.2172068102489</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N16">
-        <v>30.2172068102489</v>
+        <v>609.625816</v>
       </c>
       <c r="O16">
-        <v>0.03069758870787372</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P16">
-        <v>0.03069758870787372</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q16">
-        <v>15.01552580214932</v>
+        <v>205.7131513940667</v>
       </c>
       <c r="R16">
-        <v>15.01552580214932</v>
+        <v>1851.4183625466</v>
       </c>
       <c r="S16">
-        <v>1.755422454846755E-05</v>
+        <v>0.0002048675926815447</v>
       </c>
       <c r="T16">
-        <v>1.755422454846755E-05</v>
+        <v>0.0002444312626354783</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H17">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I17">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J17">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>396.995296030644</v>
+        <v>88.434049</v>
       </c>
       <c r="N17">
-        <v>396.995296030644</v>
+        <v>265.302147</v>
       </c>
       <c r="O17">
-        <v>0.4033065793617904</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P17">
-        <v>0.4033065793617904</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q17">
-        <v>499.7010188920526</v>
+        <v>89.52399865392502</v>
       </c>
       <c r="R17">
-        <v>499.7010188920526</v>
+        <v>805.715987885325</v>
       </c>
       <c r="S17">
-        <v>0.0005841862621602974</v>
+        <v>8.91560212225909E-05</v>
       </c>
       <c r="T17">
-        <v>0.0005841862621602974</v>
+        <v>0.000106373675571366</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H18">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I18">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J18">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>157.048618524835</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N18">
-        <v>157.048618524835</v>
+        <v>1018.778411</v>
       </c>
       <c r="O18">
-        <v>0.1595453189597914</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P18">
-        <v>0.1595453189597914</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q18">
-        <v>197.6782986526664</v>
+        <v>343.7782849718583</v>
       </c>
       <c r="R18">
-        <v>197.6782986526664</v>
+        <v>3094.004564746725</v>
       </c>
       <c r="S18">
-        <v>0.0002311000819172929</v>
+        <v>0.0003423652264383425</v>
       </c>
       <c r="T18">
-        <v>0.0002311000819172929</v>
+        <v>0.0004084821981136315</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.25870765696297</v>
+        <v>1.012325</v>
       </c>
       <c r="H19">
-        <v>1.25870765696297</v>
+        <v>3.036975</v>
       </c>
       <c r="I19">
-        <v>0.001448491772895792</v>
+        <v>0.001076688698890992</v>
       </c>
       <c r="J19">
-        <v>0.001448491772895792</v>
+        <v>0.001109538674068479</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>72.88905713852451</v>
+        <v>31.847119</v>
       </c>
       <c r="N19">
-        <v>72.88905713852451</v>
+        <v>63.694238</v>
       </c>
       <c r="O19">
-        <v>0.07404782021693096</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P19">
-        <v>0.07404782021693096</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q19">
-        <v>91.74601432907222</v>
+        <v>32.239634741675</v>
       </c>
       <c r="R19">
-        <v>91.74601432907222</v>
+        <v>193.43780845005</v>
       </c>
       <c r="S19">
-        <v>0.0001072576583850912</v>
+        <v>3.21071176718639E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001072576583850912</v>
+        <v>2.553839192555563E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H20">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I20">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J20">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>327.200973561916</v>
+        <v>404.808258</v>
       </c>
       <c r="N20">
-        <v>327.200973561916</v>
+        <v>809.616516</v>
       </c>
       <c r="O20">
-        <v>0.3324026927536134</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P20">
-        <v>0.3324026927536134</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q20">
-        <v>411.850370788122</v>
+        <v>534.400740058314</v>
       </c>
       <c r="R20">
-        <v>411.850370788122</v>
+        <v>3206.404440349884</v>
       </c>
       <c r="S20">
-        <v>0.0004814825657420169</v>
+        <v>0.0005322041512711008</v>
       </c>
       <c r="T20">
-        <v>0.0004814825657420169</v>
+        <v>0.0004233216552938879</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.25870765696297</v>
+        <v>1.320133</v>
       </c>
       <c r="H21">
-        <v>1.25870765696297</v>
+        <v>3.960399</v>
       </c>
       <c r="I21">
-        <v>0.001448491772895792</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J21">
-        <v>0.001448491772895792</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>30.2172068102489</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N21">
-        <v>30.2172068102489</v>
+        <v>0.236996</v>
       </c>
       <c r="O21">
-        <v>0.03069758870787372</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P21">
-        <v>0.03069758870787372</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q21">
-        <v>38.03462958409389</v>
+        <v>0.1042887468226667</v>
       </c>
       <c r="R21">
-        <v>38.03462958409389</v>
+        <v>0.938598721404</v>
       </c>
       <c r="S21">
-        <v>4.446520469109386E-05</v>
+        <v>1.038600807024098E-07</v>
       </c>
       <c r="T21">
-        <v>4.446520469109386E-05</v>
+        <v>1.239173572121524E-07</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H22">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I22">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J22">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>396.995296030644</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N22">
-        <v>396.995296030644</v>
+        <v>609.625816</v>
       </c>
       <c r="O22">
-        <v>0.4033065793617904</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P22">
-        <v>0.4033065793617904</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q22">
-        <v>8498.078353626199</v>
+        <v>268.2623857845093</v>
       </c>
       <c r="R22">
-        <v>8498.078353626199</v>
+        <v>2414.361472060584</v>
       </c>
       <c r="S22">
-        <v>0.009934861929954691</v>
+        <v>0.0002671597261052189</v>
       </c>
       <c r="T22">
-        <v>0.009934861929954691</v>
+        <v>0.0003187531435425993</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H23">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I23">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J23">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>157.048618524835</v>
+        <v>88.434049</v>
       </c>
       <c r="N23">
-        <v>157.048618524835</v>
+        <v>265.302147</v>
       </c>
       <c r="O23">
-        <v>0.1595453189597914</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P23">
-        <v>0.1595453189597914</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q23">
-        <v>3361.781559874655</v>
+        <v>116.744706408517</v>
       </c>
       <c r="R23">
-        <v>3361.781559874655</v>
+        <v>1050.702357676653</v>
       </c>
       <c r="S23">
-        <v>0.003930163296478768</v>
+        <v>0.0001162648415920209</v>
       </c>
       <c r="T23">
-        <v>0.003930163296478768</v>
+        <v>0.0001387177037542826</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H24">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I24">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J24">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>72.88905713852451</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N24">
-        <v>72.88905713852451</v>
+        <v>1018.778411</v>
       </c>
       <c r="O24">
-        <v>0.07404782021693096</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P24">
-        <v>0.07404782021693096</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q24">
-        <v>1560.262614893315</v>
+        <v>448.3076666828876</v>
       </c>
       <c r="R24">
-        <v>1560.262614893315</v>
+        <v>4034.769000145988</v>
       </c>
       <c r="S24">
-        <v>0.001824058688141038</v>
+        <v>0.0004464649529288799</v>
       </c>
       <c r="T24">
-        <v>0.001824058688141038</v>
+        <v>0.0005326854810879338</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.4059925611064</v>
+        <v>1.320133</v>
       </c>
       <c r="H25">
-        <v>21.4059925611064</v>
+        <v>3.960399</v>
       </c>
       <c r="I25">
-        <v>0.02463352307734737</v>
+        <v>0.001404067154454411</v>
       </c>
       <c r="J25">
-        <v>0.02463352307734737</v>
+        <v>0.001446905508027602</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>327.200973561916</v>
+        <v>31.847119</v>
       </c>
       <c r="N25">
-        <v>327.200973561916</v>
+        <v>63.694238</v>
       </c>
       <c r="O25">
-        <v>0.3324026927536134</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P25">
-        <v>0.3324026927536134</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q25">
-        <v>7004.061606053146</v>
+        <v>42.042432746827</v>
       </c>
       <c r="R25">
-        <v>7004.061606053146</v>
+        <v>252.254596480962</v>
       </c>
       <c r="S25">
-        <v>0.008188249402918542</v>
+        <v>4.186962247648799E-05</v>
       </c>
       <c r="T25">
-        <v>0.008188249402918542</v>
+        <v>3.330360699168698E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>21.4059925611064</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H26">
-        <v>21.4059925611064</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I26">
-        <v>0.02463352307734737</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J26">
-        <v>0.02463352307734737</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.2172068102489</v>
+        <v>404.808258</v>
       </c>
       <c r="N26">
-        <v>30.2172068102489</v>
+        <v>809.616516</v>
       </c>
       <c r="O26">
-        <v>0.03069758870787372</v>
+        <v>0.3790446557934784</v>
       </c>
       <c r="P26">
-        <v>0.03069758870787372</v>
+        <v>0.2925703530363589</v>
       </c>
       <c r="Q26">
-        <v>646.8293041976017</v>
+        <v>9804.216092399092</v>
       </c>
       <c r="R26">
-        <v>646.8293041976017</v>
+        <v>58825.29655439455</v>
       </c>
       <c r="S26">
-        <v>0.0007561897598543253</v>
+        <v>0.009763917062997245</v>
       </c>
       <c r="T26">
-        <v>0.0007561897598543253</v>
+        <v>0.007766338393619124</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H27">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I27">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J27">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M27">
-        <v>396.995296030644</v>
+        <v>0.07899866666666668</v>
       </c>
       <c r="N27">
-        <v>396.995296030644</v>
+        <v>0.236996</v>
       </c>
       <c r="O27">
-        <v>0.4033065793617904</v>
+        <v>7.397087836782818E-05</v>
       </c>
       <c r="P27">
-        <v>0.4033065793617904</v>
+        <v>8.564301989635414E-05</v>
       </c>
       <c r="Q27">
-        <v>22226.16051545288</v>
+        <v>1.913300886790222</v>
       </c>
       <c r="R27">
-        <v>22226.16051545288</v>
+        <v>17.219707981112</v>
       </c>
       <c r="S27">
-        <v>0.02598397270128863</v>
+        <v>1.905436497841154E-06</v>
       </c>
       <c r="T27">
-        <v>0.02598397270128863</v>
+        <v>2.273411050243642E-06</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2149,57 +2149,57 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H28">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I28">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J28">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>157.048618524835</v>
+        <v>203.2086053333333</v>
       </c>
       <c r="N28">
-        <v>157.048618524835</v>
+        <v>609.625816</v>
       </c>
       <c r="O28">
-        <v>0.1595453189597914</v>
+        <v>0.1902756041672602</v>
       </c>
       <c r="P28">
-        <v>0.1595453189597914</v>
+        <v>0.220299903327563</v>
       </c>
       <c r="Q28">
-        <v>8792.516785371865</v>
+        <v>4921.591986206572</v>
       </c>
       <c r="R28">
-        <v>8792.516785371865</v>
+        <v>44294.32787585915</v>
       </c>
       <c r="S28">
-        <v>0.01027908153402758</v>
+        <v>0.004901362385156694</v>
       </c>
       <c r="T28">
-        <v>0.01027908153402758</v>
+        <v>0.005847904887036898</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H29">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I29">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J29">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>72.88905713852451</v>
+        <v>88.434049</v>
       </c>
       <c r="N29">
-        <v>72.88905713852451</v>
+        <v>265.302147</v>
       </c>
       <c r="O29">
-        <v>0.07404782021693096</v>
+        <v>0.08280575556743855</v>
       </c>
       <c r="P29">
-        <v>0.07404782021693096</v>
+        <v>0.09587198540931691</v>
       </c>
       <c r="Q29">
-        <v>4080.763424601916</v>
+        <v>2141.820254866959</v>
       </c>
       <c r="R29">
-        <v>4080.763424601916</v>
+        <v>19276.38229380263</v>
       </c>
       <c r="S29">
-        <v>0.004770704564630141</v>
+        <v>0.00213301656504506</v>
       </c>
       <c r="T29">
-        <v>0.004770704564630141</v>
+        <v>0.002544940980620613</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H30">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I30">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J30">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>327.200973561916</v>
+        <v>339.5928036666666</v>
       </c>
       <c r="N30">
-        <v>327.200973561916</v>
+        <v>1018.778411</v>
       </c>
       <c r="O30">
-        <v>0.3324026927536134</v>
+        <v>0.3179797714891823</v>
       </c>
       <c r="P30">
-        <v>0.3324026927536134</v>
+        <v>0.3681549887898912</v>
       </c>
       <c r="Q30">
-        <v>18318.65876475837</v>
+        <v>8224.736439471691</v>
       </c>
       <c r="R30">
-        <v>18318.65876475837</v>
+        <v>74022.62795524523</v>
       </c>
       <c r="S30">
-        <v>0.02141582343638555</v>
+        <v>0.008190929667724415</v>
       </c>
       <c r="T30">
-        <v>0.02141582343638555</v>
+        <v>0.009772747629989779</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>55.9859543366913</v>
+        <v>24.21940733333333</v>
       </c>
       <c r="H31">
-        <v>55.9859543366913</v>
+        <v>72.65822199999999</v>
       </c>
       <c r="I31">
-        <v>0.06442734641821805</v>
+        <v>0.02575927905528127</v>
       </c>
       <c r="J31">
-        <v>0.06442734641821805</v>
+        <v>0.02654519951532467</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>30.2172068102489</v>
+        <v>31.847119</v>
       </c>
       <c r="N31">
-        <v>30.2172068102489</v>
+        <v>63.694238</v>
       </c>
       <c r="O31">
-        <v>0.03069758870787372</v>
+        <v>0.02982024210427285</v>
       </c>
       <c r="P31">
-        <v>0.03069758870787372</v>
+        <v>0.02301712641697377</v>
       </c>
       <c r="Q31">
-        <v>1691.739160660952</v>
+        <v>771.3183474541393</v>
       </c>
       <c r="R31">
-        <v>1691.739160660952</v>
+        <v>4627.910084724836</v>
       </c>
       <c r="S31">
-        <v>0.001977764181886159</v>
+        <v>0.000768147937860012</v>
       </c>
       <c r="T31">
-        <v>0.001977764181886159</v>
+        <v>0.0006109942130080189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>55.986019</v>
+      </c>
+      <c r="H32">
+        <v>111.972038</v>
+      </c>
+      <c r="I32">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J32">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>404.808258</v>
+      </c>
+      <c r="N32">
+        <v>809.616516</v>
+      </c>
+      <c r="O32">
+        <v>0.3790446557934784</v>
+      </c>
+      <c r="P32">
+        <v>0.2925703530363589</v>
+      </c>
+      <c r="Q32">
+        <v>22663.6028237449</v>
+      </c>
+      <c r="R32">
+        <v>90654.41129497961</v>
+      </c>
+      <c r="S32">
+        <v>0.02257044686023509</v>
+      </c>
+      <c r="T32">
+        <v>0.01196853864289687</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>55.986019</v>
+      </c>
+      <c r="H33">
+        <v>111.972038</v>
+      </c>
+      <c r="I33">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J33">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M33">
+        <v>0.07899866666666668</v>
+      </c>
+      <c r="N33">
+        <v>0.236996</v>
+      </c>
+      <c r="O33">
+        <v>7.397087836782818E-05</v>
+      </c>
+      <c r="P33">
+        <v>8.564301989635414E-05</v>
+      </c>
+      <c r="Q33">
+        <v>4.422820852974667</v>
+      </c>
+      <c r="R33">
+        <v>26.536925117848</v>
+      </c>
+      <c r="S33">
+        <v>4.404641389577149E-06</v>
+      </c>
+      <c r="T33">
+        <v>3.503505336360982E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>55.986019</v>
+      </c>
+      <c r="H34">
+        <v>111.972038</v>
+      </c>
+      <c r="I34">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J34">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>203.2086053333333</v>
+      </c>
+      <c r="N34">
+        <v>609.625816</v>
+      </c>
+      <c r="O34">
+        <v>0.1902756041672602</v>
+      </c>
+      <c r="P34">
+        <v>0.220299903327563</v>
+      </c>
+      <c r="Q34">
+        <v>11376.8408391555</v>
+      </c>
+      <c r="R34">
+        <v>68261.04503493301</v>
+      </c>
+      <c r="S34">
+        <v>0.01133007772835129</v>
+      </c>
+      <c r="T34">
+        <v>0.00901208163656525</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>55.986019</v>
+      </c>
+      <c r="H35">
+        <v>111.972038</v>
+      </c>
+      <c r="I35">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J35">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>88.434049</v>
+      </c>
+      <c r="N35">
+        <v>265.302147</v>
+      </c>
+      <c r="O35">
+        <v>0.08280575556743855</v>
+      </c>
+      <c r="P35">
+        <v>0.09587198540931691</v>
+      </c>
+      <c r="Q35">
+        <v>4951.070347560931</v>
+      </c>
+      <c r="R35">
+        <v>29706.42208536559</v>
+      </c>
+      <c r="S35">
+        <v>0.004930719579317291</v>
+      </c>
+      <c r="T35">
+        <v>0.003921954327341076</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>55.986019</v>
+      </c>
+      <c r="H36">
+        <v>111.972038</v>
+      </c>
+      <c r="I36">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J36">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>339.5928036666666</v>
+      </c>
+      <c r="N36">
+        <v>1018.778411</v>
+      </c>
+      <c r="O36">
+        <v>0.3179797714891823</v>
+      </c>
+      <c r="P36">
+        <v>0.3681549887898912</v>
+      </c>
+      <c r="Q36">
+        <v>19012.44915834527</v>
+      </c>
+      <c r="R36">
+        <v>114074.6949500716</v>
+      </c>
+      <c r="S36">
+        <v>0.01893430081477425</v>
+      </c>
+      <c r="T36">
+        <v>0.01506057317215422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>55.986019</v>
+      </c>
+      <c r="H37">
+        <v>111.972038</v>
+      </c>
+      <c r="I37">
+        <v>0.05954561425747298</v>
+      </c>
+      <c r="J37">
+        <v>0.04090824144922671</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>31.847119</v>
+      </c>
+      <c r="N37">
+        <v>63.694238</v>
+      </c>
+      <c r="O37">
+        <v>0.02982024210427285</v>
+      </c>
+      <c r="P37">
+        <v>0.02301712641697377</v>
+      </c>
+      <c r="Q37">
+        <v>1782.993409429261</v>
+      </c>
+      <c r="R37">
+        <v>7131.973637717044</v>
+      </c>
+      <c r="S37">
+        <v>0.001775664633405485</v>
+      </c>
+      <c r="T37">
+        <v>0.0009415901649329375</v>
       </c>
     </row>
   </sheetData>
